--- a/excel_files/safeguarding malaysia.xlsx
+++ b/excel_files/safeguarding malaysia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fagio\Documents\GitHub\parenttext-malaysia\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A28870-482C-46DC-AB7C-7A4A35394D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA23AE49-1FB8-4F73-B425-B3570168DF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="generic" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="1114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="1115">
   <si>
     <t>Generic (Police and Ambulance)</t>
   </si>
@@ -3414,6 +3414,9 @@
   </si>
   <si>
     <t>KELUARGA</t>
+  </si>
+  <si>
+    <t>THSN</t>
   </si>
 </sst>
 </file>
@@ -4045,7 +4048,7 @@
   </sheetPr>
   <dimension ref="A1:AA960"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
@@ -17659,8 +17662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:AA998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -17830,7 +17833,9 @@
       <c r="H5" s="48" t="s">
         <v>1111</v>
       </c>
-      <c r="I5" s="44"/>
+      <c r="I5" s="44" t="s">
+        <v>1114</v>
+      </c>
       <c r="J5" s="44"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -17873,7 +17878,9 @@
       <c r="H6" s="48" t="s">
         <v>1111</v>
       </c>
-      <c r="I6" s="44"/>
+      <c r="I6" s="44" t="s">
+        <v>1114</v>
+      </c>
       <c r="J6" s="44"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
